--- a/results/results_summaryModelfb_bart_tfidf_classificationModelGroup_resultsGroup_top3.xlsx
+++ b/results/results_summaryModelfb_bart_tfidf_classificationModelGroup_resultsGroup_top3.xlsx
@@ -652,7 +652,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['812', '910', '960']</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['812', '910', '960']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['472', '107', '103']</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -752,7 +752,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['472', '107', '103']</t>
+          <t>['259', '251', '162']</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['259', '251', '162']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -798,7 +798,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['681', '772', '682']</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['681', '772', '682']</t>
+          <t>['477', '475', '472']</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -844,7 +844,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['477', '475', '472']</t>
+          <t>['192', '090', '201']</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -869,7 +869,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['192', '090', '201']</t>
+          <t>['661', '682', '649']</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['661', '682', '649']</t>
+          <t>['477', '475', '476']</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -919,7 +919,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['477', '475', '476']</t>
+          <t>['262', '264', '261']</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -940,7 +940,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['262', '264', '261']</t>
+          <t>['620', '631', '741']</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['620', '631', '741']</t>
+          <t>['107', '472', '103']</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -990,7 +990,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['107', '472', '103']</t>
+          <t>['239', '439', '431']</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['239', '439', '431']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1036,7 +1036,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['631', '620', '701']</t>
+          <t>['282', '439', '281']</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['282', '439', '281']</t>
+          <t>['681', '682', '772']</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['681', '682', '772']</t>
+          <t>['663', '661', '643']</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['663', '661', '643']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['682', '681', '431']</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['682', '681', '431']</t>
+          <t>['429', '422', '439']</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['429', '422', '439']</t>
+          <t>['661', '649', '643']</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['661', '649', '643']</t>
+          <t>['661', '662', '649']</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['661', '662', '649']</t>
+          <t>['701', '682', '711']</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1257,7 +1257,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['701', '682', '711']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['932', '551', '561']</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1303,7 +1303,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['932', '551', '561']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1324,7 +1324,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['631', '592', '620']</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['631', '592', '620']</t>
+          <t>['471', '492', '472']</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1370,7 +1370,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['471', '492', '472']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['701', '620', '661']</t>
+          <t>['106', '107', '104']</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['106', '107', '104']</t>
+          <t>['741', '329', '181']</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['741', '329', '181']</t>
+          <t>['663', '643', '682']</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['663', '643', '682']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['281', '282', '265']</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1516,7 +1516,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['281', '282', '265']</t>
+          <t>['202', '329', '210']</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['202', '329', '210']</t>
+          <t>['202', '201', '106']</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['202', '201', '106']</t>
+          <t>['259', '282', '281']</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1587,7 +1587,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['259', '282', '281']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1608,7 +1608,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['701', '620', '661']</t>
+          <t>['471', '681', '682']</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1629,7 +1629,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['471', '681', '682']</t>
+          <t>['282', '281', '265']</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['282', '281', '265']</t>
+          <t>['701', '821', '522']</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['701', '821', '522']</t>
+          <t>['251', '439', '259']</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['251', '439', '259']</t>
+          <t>['282', '265', '202']</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1725,7 +1725,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['282', '265', '202']</t>
+          <t>['271', '432', '274']</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['271', '432', '274']</t>
+          <t>['701', '702', '749']</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1771,7 +1771,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['701', '702', '749']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['682', '681', '663']</t>
+          <t>['663', '643', '661']</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['663', '643', '661']</t>
+          <t>['682', '681', '663']</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['682', '681', '663']</t>
+          <t>['522', '711', '439']</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['522', '711', '439']</t>
+          <t>['701', '620', '661']</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['701', '620', '661']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['032', '014', '011']</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['032', '014', '011']</t>
+          <t>['682', '663', '661']</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['682', '663', '661']</t>
+          <t>['192', '090', '352']</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['192', '090', '352']</t>
+          <t>['107', '106', '103']</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['107', '106', '103']</t>
+          <t>['522', '500', '510']</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['522', '500', '510']</t>
+          <t>['282', '281', '711']</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['282', '281', '711']</t>
+          <t>['522', '510', '500']</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['522', '510', '500']</t>
+          <t>['682', '681', '475']</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['682', '681', '475']</t>
+          <t>['631', '620', '701']</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['631', '620', '701']</t>
+          <t>['749', '661', '702']</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2167,7 +2167,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['749', '661', '702']</t>
+          <t>['701', '821', '631']</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['701', '821', '631']</t>
+          <t>['303', '522', '281']</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2213,7 +2213,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['303', '522', '281']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['522', '773', '500']</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['522', '773', '500']</t>
+          <t>['821', '492', '522']</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2284,7 +2284,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['821', '492', '522']</t>
+          <t>['610', '631', '432']</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2305,7 +2305,7 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['610', '631', '432']</t>
+          <t>['749', '842', '661']</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['749', '842', '661']</t>
+          <t>['281', '303', '271']</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['281', '303', '271']</t>
+          <t>['610', '631', '620']</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['610', '631', '620']</t>
+          <t>['663', '643', '701']</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['663', '643', '701']</t>
+          <t>['259', '282', '251']</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['259', '282', '251']</t>
+          <t>['170', '329', '181']</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['170', '329', '181']</t>
+          <t>['661', '649', '663']</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['661', '649', '663']</t>
+          <t>['261', '273', '264']</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['261', '273', '264']</t>
+          <t>['651', '682', '661']</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['651', '682', '661']</t>
+          <t>['711', '741', '620']</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2551,7 +2551,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['711', '741', '620']</t>
+          <t>['953', '465', '281']</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2574,11 +2574,7 @@
           <t>71200</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>['953', '465', '281']</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>0.28</v>
       </c>
